--- a/union.xlsx
+++ b/union.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{265D27F5-6D30-4410-AB8E-C495CE976395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5342C90B-C0F3-4093-B84A-93324781E0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87BB0FE9-2593-42AA-841A-0322FA7F0078}"/>
   </bookViews>
@@ -36,19 +36,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Fox Sports 3 p. m. Fútbol – Liga de Campeones: Lyon vs. Barcelona 6:30 p. m. Fútbol – Copa Libertadores: Defensor Sporting vs. Atlético Mineiro Fox Sports 2 8 p. m. Fútbol – Concacaf Champions League: Saprissa vs. Tigres 10 p. m. Fútbol – Liga de México: Tijuana vs. Pachuca. ESPN 4 p. m. Tenis – ATP de Río: primera y segunda ronda ESPN 2 3 p. m. Fútbol – Liga de Campeones: Liverpool vs. Bayern Múnich Win Sports 7:30 p. m. Fútbol – Liga colombiana: Deportivo Cali vs. Unión Magdalena Directv Canal 613 Fútbol – Copa Suramericana: Chapecoense vs. La Calera TyC Sports 7 p. m. Fútbol – Primera B Argentina: Quilmes vs. Chacarita DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.SEÑAL COLOMBIA 7 a. m.: CICLISMO – Giro de Italia: etapa 17 WIN SPORTS 7:30 p. m.: FÚTBOL – Torneo de ascenso: Barranquilla vs. Fortaleza ESPN 2 6 a. m.: CICLISMO – Giro de Italia: etapa 17 ESPN 3 6 p. m.: BÉISBOL – Grandes Ligas: Cachorros de Chicago vs. Indios de Cleveland 9 p. m.: BÉISBOL – Grandes Ligas: Dodgers de Los Ángeles vs. Rockies de Colorado FOX SPORTS 7:30 p. m.: FÚTBOL – Copa Libertadores: Universidad de Chile vs. Vasco da Gama FOX SPORTS 2 7:30 p. m.: FÚTBOL – Copa Libertadores: Cruzeiro vs. Racing DIRECTV CANAL 612 8 p. m.: BALONCESTO – NBA: Rockets de Houston vs. Warriors de Golden State *Información suministrada por los canales. Cualquier cambio es responsabilidad de ellos o de su cableoperador. DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.ESPN 9 a. m.: Tenis – Torneo de Maestros de Londres 8 p. m.: Baloncesto de la NBA: Raptors de Toronto vs. Warriors de Golden State 10:30 p. m.: Baloncesto de la NBA: Clippers de Los Ángeles vs. Grizzlies de Memphis ESPN + 3 p. m.: Tenis – Torneo de Maestros de Londres DIRECTV CANAL 610 12:55 p. m.: Baloncesto – Euroliga: Olympiacos vs. Barcelona Información suministrada por los canales. Cualquier cambio es responsabilidad de ellos o de su cableoperador. DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.RCN 7 p. m.: Fútbol – Copa Colombia (final-ida): Once Caldas vs. Nacional Win Sports 7 p. m.: Fútbol – Copa Colombia (final-ida): Once Caldas vs. Nacional ESPN 12 p. m.: Fútbol – Liga de Campeones: Brujas vs. Mónaco 2 p. m.: Fútbol – Liga de Campeones: PSG vs. Nápoles 7 p. m.: Béisbol – Serie Mundial (juego 2): Red Sox vs. Dodgers ESPN 2 2 p. m.: Fútbol – Liga de Campeones: Barcelona vs. Inter ESPN 3 12 p. m.: Tenis – ATP de Suiza 6 p. m.: Baloncesto – NBA: Hawks vs. Mvericks 8:30 p. m.: Baloncesto – NBA: Bucks vs. 76ers Fox Sports 2 p. m.: Fútbol – Liga de Campeones: Borussia Dortmund vs. Atlético de Madrid 7:30 p. m.: Fútbol – Copa Libertadores: Boca Juniors vs. Palmeiras Fox Sports 2 12 p. m.: Fútbol – Liga de Campeones: PSV vs. Tottenham 2 p. m.: Fútbol – Liga de Campeones: Liverpool vs. Estrella Roja 5 p. m.: Fútbol – Copa Suramericana: Fluminense vs. Nacional de Uruguay 7 p. m.: Fútbol – Copa Suramericana: Bahía vs. Atlético Paranaense Fox Sports 3 2 p. m.: Fútbol – Liga de Campeones: Lokomotiv vs. Porto 7 p. m.: Béisbol – Serie Mundial (juego 2): Red Sox vs. Dodgers Directv Sports Canal 610/ 1610 HD 12 p. m.: Fútbol – Liga de España: Rayo Vallecano vs. Athletic de Bilbao Canal 612/ 1612 HD 4:30 p. m.: Baloncesto – Liga Suramericana: Flmanego vs. Welcome 6:30 p. m.: Baloncesto – Liga Suramericana: Goes vs. Libertad DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.Win Sports 7:45 p. m.: Fútbol – Torneo de la B (Cuadrangulares): América vs. Popayán ESPN 6:30 a. m.: Tenis – Másters de París: Día 2 12:30 p. m.: Fútbol – Liga de Campeones (Fecha 4): Besiktas vs. Nápoles 2:40 p. m.: Fútbol – Liga de Campeones (Fecha 4): PSV vs. Bayern Múnich 7 p. m.: Béisbol – Serie Mundial (Sexto juego): Indios vs. Cachorros ESPN 2 2:30 p. m.: Fútbol – Liga de Campeones (Fecha 4): Ludogorest vs. Arsenal ESPN 3 2:30 p. m.: Tenis – Másters de París: Día 2 Fox Sports 2:30 p. m.: Fútbol – Liga de Campeones (Fecha 4): Manchester City vs. Barcelona 6:30 p. m.: Fútbol – Copa Suramericana (Semifinal – ida): Cerro Porteño vs. Nacional Fox Sports 2 2:30 p. m.: Fútbol – Liga de Campeones (Fecha 4): Atlético de Madrid vs. Rostov Fox Sports 3 2:30 p. m.: Fútbol – Liga de Campeones (Fecha 4): Basel vs. PSG *Información suministrada por los canales. Cualquier cambio es responsabilidad de ellos o de su cableoperador. DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.RCN 6 p. m.: FÚTBOL – Liga colombiana: Junior vs. Tolima WIN SPORTS 3:15 p. m.: FÚTBOL – Liga colombiana: Huila vs. Equidad 5:15 p. m.: FÚTBOL – Liga colombiana: Jaguares vs. Unión Magdalena 7:45 p. m.: FÚTBOL – Liga colombiana: Once Caldas vs. Nacional ESPN 7:45 a. m.: TENIS – Wimbledon: final femenina ESPN 3 5 a. m.: CICLISMO  - Tour de Francia: etapa 8 FOX SPORTS 2 3 p. m.: BÉISBOL – Grandes Ligas: Atléticos de Oakland vs. Medias Blancas de Chicago DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.RCN 5:15 p. m.: Fútbol – Liga colombiana (fecha 10): Junior vs. Once Caldas WIN SPORTS 3:15 p. m.: Fútbol – Liga colombiana (fecha 10): Pasto vs. Cortuluá 5:30 p. m.: Fútbol – Liga colombiana (fecha 10): Bucaramanga vs. Alianza Petrolera 7:45 p. m.: Fútbol – Liga colombiana (fecha 10): Nacional vs. Medellín ESPN 9 a. m.: Ciclismo – Milán-San Remo 1 p. m.: Tenis – Semifinales de Indian Wells 7:30 p. m.: Clippers de Los Ángeles vs. Cavaliers de Cleveland ESPN 2 11:55 a. m.: Fútbol – Serie A de Italia (fecha 29): Torino vs. Inter ESPN 3 6:55 a. m.: Fútbol – Liga de España (fecha 28): Eibar vs. Español 9:30 a. m.: Rugby Seis Naciones (fecha 5): Francia vs. Gales 11:50 a. m.: Rugby Seis Naciones (fecha 5): Irlanda vs. Inglaterra FOX SPORTS 9:30 a. m.: Fútbol – Bundesliga: Hoffenheim vs. Bayer Leverkusen 2:30 p. m.: Fútbol – Serie A de Italia (fecha 29): Milán vs. Génova 8 p. m.: Fútbol – Liga mexicana: León vs. Toluca FOX SPORTS 2 9:30 a. m.: Fútbol – Bundesliga: Koln vs. Hertha Berlín 1 p. m.: Fútbol – MLS: New York City vs. Montreal Impact 3 p. m.: Fútbol – MLS: Atlanta United vs. Chicago Fire DIRECTV SPORTS CANAL 610/1610 10 a. m.: Fútbol – Liga de España (fecha 28): Athletic de Bilbao vs. Real Madrid 10 a. m.: Fútbol – Liga de España (fecha 28): Betis vs. Osasuna CANAL 612/1612 9:55 a. m.: Fútbol – Liga de Inglaterra (fecha 29): Sunderland vs. Burnley CANAL 613/1613 9:55 a. m.: Fútbol – Liga de Inglaterra (fecha 29): Everton vs. Hull City *Información suministrada por los canales. Cualquier cambio es responsabilidad de ellos o de su cableoperador. DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.ESPN 4:30 p. m.: FÚTBOL AMERICANO – NFL: Potros de Indianápolis vs. Texanos de Houston 8:30 p. m.: BALONCESTO – NBA: Bucks de Milwaukee vs. Raptors de Toronto FOX SPORTS 8:15 p. m.: FÚTBOL AMERICANO – NFL: Halcones Marinos de Seattle vs. Vaqueros de Dallas FOX SPORTS 2 6 p. m.: FÚTBOL – Liga de México: Monterrey vs. Pachuca 8 p. m.: FÚTBOL – Liga de México: León vs. Tigres DIRECTV SPORTS CANAL 610 7 a. m.: FÚTBOL – Liga de España: Valladolid vs. Rayo Vallecano 10:15 a. m.: FÚTBOL – Liga de España: Alavés vs. Valencia 2:45 p. m.: FÚTBOL – Liga de España: Huesca vs. Real Betis DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.CARACOL TV 9 a. m.: CICLISMO – Vuelta a España: etapa 14 ESPN 2:45 p. m.: TENIS – US Open: final femenina ESPN 2 8:50 a. m.: CICLISMO – Vuelta a España: etapa 14 DIRECTV SPORTS CANAL 610 10:50 a. m.: FÚTBOL – Eliminatorias europeas: Inglaterra vs. Bulgaria 1:30 p. m.: FÚTBOL – Eliminatorias europeas: Francia vs. Albania CANAL 613 1:30 p. m.: FÚTBOL – Eliminatorias europeas: Turquía vs. Andorra DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.ESPN 1 p. m.: Fútbol – Liga de Portugal: Aves vs. Feirense 3 p. m.: Fútbol – Liga de España: Rayo Vallecano vs. Celta de Vigo 7:30 p. m.: Baloncesto – NBA: Knicks vs. Pacers 10 p. m.: Baloncesto – NBA: Jazz vs. Lakers ESPN 2 4:30 a. m.: Tenis – ATP Sidney: Semifinales 10 p. m.: Fútbol – Liga de México: Atlas vs. América ESPN 3 2 p. m.: Fútbol – Liga de Portugal: Santa Clara vs. Benfica Fox Sports 7:30 p. m.: Fútbol – Amistoso pretemporada: Millonarios vs. Nacional Fox Sports 2 8 p. m.: Fútbol – Amistoso pretemporada: San Martín de Tucumán vs. Talleres de Córdoba Directv Sports Canal 610 12 p. m.: Balonmano – Copa del Mundo: Argentina vs. Hungría Canal 612 8 a. m.: Tenis – ATP 250 Auckland: Semifinales 8:30 p. m.: Tenis – ATP 250 Auckland: Final 12 p. m.: Baloncesto – Euroliga: CSKA de Moscú vs. Maccabi Fox Telaviv DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>contenido</t>
+  </si>
+  <si>
+    <t>El  Real Madrid perdió 0-2 ante la  Real Sociedad este domingo y perdió la ocasión de acercarse al podio después de que Sevilla y Atlético de Madrid empatasen 1-1. En un partido que pudo acabar con muchos goles, la Real Sociedad se mostró más efectiva y se llevó los tres puntos con un tanto de penal del brasileño William José (3) y otro de Rubén Pardo (83), cuando los blancos ya jugaban en inferioridad por la expulsión de Lucas Vázquez a la hora de juego. La derrota, ante un equipo que lucha por salir de la zona baja de la clasificación, acentúa la crisis del  Real  Madrid, que suma la sexta derrota en 18 partidos y que parece despedirse de sus opciones de luchar por la Liga. Deportes Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>Barcelona derrotó 0-3 al Real Madrid y lo eliminó de la Copa del Rey, con una gran actuación del uruguayo, Luis Suárez. Barcelona espera el rival de la final, entre Betis y Sevilla, que jugarán este jueves y cuya serie está empatada 2-2. Por la Liga de España, este sábado, se volverán a enfrentar. Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>José Mourinho es de esas personas que despierta admiración y disgustos en el mundo del fútbol . Su forma de trabajo y la manera en que dice las verdades es del gusto de algunos, pero motivo de reproches por otros. Sin embargo, el entrenador portugués no deja de ser un ser humano intachable. La nobleza que algunos no pueden creer de él, apareció por estos días en Londres cuando más se lo necesitaba. No tuvo que hacer una estrategia para poner a ganar a su equipo. En esta oportunidad está dirigiendo el partido más importante de su vida. Mourinho asistió a un un centro de mayores de Londres para colaborar en la lucha contra el coronavirus. Tal y como se pueden ver en algunas fotografías o en un vídeo, el portugués ha decidido estar activo en esta lucha frente a la propagación de la pandemia que asola a todo el mundo. Aplausos y más aplausos. DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>Tres goles de Lionel Messi a balón parado, uno de penalti y dos lanzamientos de falta, además de otro de Sergio Busquets, llevaron al Barça al liderato de LaLiga tras derrotar al Celta (4-1), en un partido con más goles que fútbol por parte de los azulgranas. Leo Messi fue la diferencia, sobre todo a balón parado. Fue el fiel de la balanza en un partido plano, en el que el Barça tampoco dio muestras de mejoría. Da igual el rival que esté enfrente, porque a este Barça se le ven las costuras, incapaz de encontrar su mejor versión, pese a que hoy Ernesto Valverde rebuscó en su alineación y planteó algún cambio. El conocimiento que Óscar García Junyent tiene del Barça, al que seguro que ha visto jugar más que a su equipo, el Celta, fue determinante en el planteamiento. Puso el técnico céltico a un equipo para presionar muy arriba, con tres centrales y buscarle la yugular a los azulgrana. Y ante las dudas, el Barça estuvo unos cuantos minutos en el inicio del partido a merced del rival que, aunque no tenía ocasiones de gol, empezó jugando muchos minutos en el campo contrario. Puso Valverde a Sergi Roberto de mediocentro, a Umtiti como acompañante de Piqué, regresó Arthur al equipo y le dio minutos a Ansu con Messi y Griezmann en la delantera. Pero no funcionó. El balón no corría, el fútbol no fluía y solo algún destello de Leo Messi animaba a los espectadores. Todo cambió en una jugada del dominicano Junior Firpo, que recuperó un balón tras una acción reclamada como falta de Arthur por parte de los gallegos. Junior centró y Aidoo despejó el balón con la mano. El penalti lo transformó Messi (1-0, m. 23). Poco antes se lesionó Semedo, Busquets entró por él y Sergi Roberto volvió al lateral. El gol hizo daño al Celta, el partido ya era del Barça, que tuvo alguna ocasión para poner el 2-0, pero en la única que tuvo el Celta empató. Pape Cheikh recuperó un balón, Messi intentó frenarlo, pero el árbitro señaló una falta protestada cerca de la frontal del área. El magnífico lanzamiento del central uruguayo Lucas Olaza superó la barrera y sorprendió a Ter Stegen (1-1, m. 42). Pero justo en la última acción del primer tiempo, una falta sobre Arthur permitió a Messi poner el 2-1, tras otro magnífico lanzamiento directo. Y el segundo tiempo empezó como acabó el primero, con un gol de Messi para decidir el partido. De nuevo Messi, otra vez en un lanzamiento de falta y por la izquierda de Rubén Blanco. El argentino, en el 48, puso el 3-1 y prácticamente cerró el partido frente a un rival sin respuestas. Pese a la goleada, que culminó Sergio Busquets en el minuto 85, el Barça no mostró mucha mejoría en su juego, pero recupera el liderato y Messi, por 45 ocasión en su carrera, volvió a llevarse el balón a casa. FC Barcelona: Ter Stegen; Semedo (Busquets, m. 23), Piqué, Umtiti, Junior; Sergi Roberto, De Jong, Arthur; Messi, Griezmann (Luis Suárez, m. 73) y Ansu Fati (Dembélé, m. 46). Celta: Rubén; Aidoo, Araújo, Olaza; Hugo Mallo, Beltrán, Pape Cheikh (Gabriel Fernández, m.81), Lobotka (Denis Suárez, m.76); Juncá; Aspas y Sisto (Brais Méndez, m. 64). Goles: 1-0, m. 23: Messi, de penalti. 1-1, m.42: Olaza. 2-1, m. 45+1: Messi. 3-1, m. 48: Messi. 4-1, m. 85: Busquets. Árbitro: Guillermo Cuadra Fernández (Comité Balear). Amonestó a los locales Umtiti (m.25), Messi (m.40), Sergi Roberto (m. 53), Busquets (m. 88) y a los visitantes Fran Beltrán (m.45). Incidencias: Partido de la decimotercera jornada de LaLiga Santander disputado en el Camp Nou ante 71.209 espectadores. EFE Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>El holandés Virgil van Dijk, defensa del Liverpool, recibió este jueves en el Forum Grimaldi de Mónaco el premio al Jugador del Año (2019) de la Uefa. Van Dijk, uno de los principales artífices del sexto título del Liverpool en la máxima competición continental y del acceso a la final de la Liga de Naciones de la selección de Holanda, superó en la elección final al argentino Leo Messi y al portugués Cristiano Ronaldo, los otros dos finalistas a lograr este galardón. (Le puede interesar: Los grandes elogios entre Messi y Cristiano en la gala de la Uefa ) Messi fue el máximo goleador de la Liga de Campeones (12 tantos) y campeón de la Liga española, en la que ganó su décimo título con el Barcelona con 36 tantos; y Cristiano fue el máximo anotador de la fase final de Liga de Naciones en la que fue campeón con su selección y logró su primer título liguero en Italia con el Juventus. Cristiano Ronaldo es el jugador que más veces ha recibido este galardón, en tres oportunidades (2014, 2016 y 2017), uno más que Messi, dos veces (2011 y 2015). Van Dijk es el primer defensa que recibe este premio, en cuyo palmarés releva al centrocampista croata del Real Madrid Luka Modric, quien el pasado año superó a Cristiano Ronaldo y al egipcio Mohamed Salah, también del Liverpool. Los tres finalistas fueron seleccionados por un jurado compuesto por 80 entrenadores de los clubes participantes en Liga de Campeones y la Liga Europa, junto a 55 periodistas de cada una de las federaciones miembro de la Uefa seleccionados por el grupo European Sports Media (ESM). Cada uno de ellos eligió una lista de tres futbolistas y tuvo que asignara a cada uno una puntuación de cinco, tres y uno. Los entrenadores no pudieron votar por jugadores de su propio equipo. EFE Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>Xavi Hernández , campeón del mundo con España en 2010, fue designado embajador del Mundial de Catar-2022, este domingo por el Comité de Organización del torneo. El mediocampista de 38 años viste desde 2015 los colores del Al Sadd, un club del emirato. “He visto lo que el fútbol puede conseguir en las comunidades en Catar y en la región”, indicó el exjugador del FC Barcelona en un comunicado. “El fútbol tiene el poder de unir a la gente, combatir los estereotipos y romper las barreras sociales”, afirmó. Xavi llevó los colores del Barça durante 17 años a partir de 1998 , consiguiendo ocho títulos de campeón de España y cuatro Ligas de Campeones, entre otros éxitos. Con la selección española se llevó el Mundial de Sudáfrica-2010, así como las Eurocopas de 2008 y 2012. AFP Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>El francés Zinedine Zidane, entrenador del Real Madrid, dijo este sábado, tras la victoria de su equipo en Éibar (0-4), que se alegra por el uruguayo Fede Valverde, que logró su primer tanto en Liga con la camiseta del conjunto blanco. "Cuando juega lo hace muy bien. A Valverde le faltaba el gol y me alegro por él", señaló Zidane sobre el charrúa, que cerró la cuenta en el estadio Ipurúa. Valverde se ha ganado la titularidad en los últimos encuentros con el Real Madrid con actuaciones solventes, despliegue físico, atención para conteneral rival junto al brasileño Casemiro, fútbol fácil y llegada al área contraria. "Es un jugador diferente, joven, quiere, tiene hambre de hacerlo bien", apuntó Zidane. El entrenador francés también destacó que estaba satisfecho por la actuación del resto de jugadores, como el croata Luka Modric o Lucas Vázquez, que recuperaron la titularidad con buen juego, o el belga Eden Hazard, que tuvo una de sus mejores prestaciones desde que llegó al Real Madrid. Con apenas 21 años, el volante uruguayo Federico Valverde se convirtió en el nuevo jugador que le gana el puesto a James en la titular del Real Madrid. El uruguayo, que comenzó su carrera deportiva en Peñarol, es un futbolista con el ADN charrúa. Corre, mete, pelea, pero también sabe jugar. Es un aporte de músculo en la zona de volantes para el equipo de Zidane. EFE Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>Hace 20 años, Zinedine Zidane tenía una incipiente calvicie y una magia desbordante; Didier Deschamps era el capitán, pero ya parecía el técnico; Laurent Blanc tenía esa mirada del que deja la vida para ganar, y parecía que la dejaba, y Thierry Henry era un diamante que empezaba a pulir los goles que le dieron fama. Fueron parte de aquella generación dorada de Francia que ganó el Mundial de 1998. Veinte años después, cuando la calvicie asoma y las canas abundan, ellos siguen en la élite: ahora son la generación dorada de entrenadores franceses. Zidane pasó de ser balón de oro y de ganar la Champions y el Mundial a convertirse en uno de los prestigiosos entrenadores del momento, con tres orejonas en el bolsillo del Real Madrid, el cual abandonó la temporada pasada. Deschamps no solo ganó el Mundial como jugador, sino que es el tercero que repite como DT, con Zagallo y Beckenbauer. Zidane fue elegido en 2017 el mejor DT en los premios The Best de la Fifa, y Deschamps, este año. A ellos los siguen otros exintegrantes de aquel plantel del 98, como Blanc, que lo ganó todo como DT del PSG, donde estuvo hasta el 2016. Y ahora aparecen Henry, el nuevo técnico del Mónaco, donde dirige a Falcao, y otro de la camada del 98, Patrick Vieira, del Niza. Sin embargo, no obstante tener las mismas raíces de ese equipo francés del 98 que era dirigido por Aimé Jacquet, no son técnicos similares. Así lo analizan dos expertos periodistas franceses. Por un lado, Romain Molina, autor de los libros Cavani, el Matador y Unai Emery, el Maestro, opina: “De esa generación del 98 se destaca gente con personalidad y carisma. Pero cada uno tiene una trayectoria distinta, influenciados por técnicos extranjeros. Zidane, por su tiempo en el Madrid y su formación en Francia. Deschamps es distinto, porque ya tenia actitudes naturales de manejar un grupo. Ambos tienen la influencia italiana, por Fabio Capello en Juventus. Henry se ha tomado su tiempo y hace parte de una filosofía de fútbol, porque teoriza mucho, con mucha inteligencia. Y Blanc es un manejador de hombres que ha tenido influencia de Alex Ferguson”, opina Romain, quien agrega que, más allá de ese prestigio, los técnicos franceses son muy conservadores, sobre todo los que dirigen en la Liga. Por su parte, Antoine Bourlon, periodista de la revista France Football, analiza: “Comparando sus experiencias, tienen diferentes maneras de teorizar el juego. En 1998 fue pragmatismo al máximo con Jacquet. Deschamps es heredero de esto, agregando su cultura táctica y su trabajo, un poco italiano. Blanc nunca dudó en ser fervoroso con un juego de posesión y posición, como lo vimos en PSG. Henry está visto hoy como influenciado por Guardiola, el hermoso juego con un enfoque más romántico del fútbol que Deschamps”, dice. Otro aspecto que analiza Bourloin es la capacidad que tienen estos entrenadores para manejar vestuarios complicados y lidiar con las figuras. “La Copa del Mundo es el mejor ejemplo para Francia, donde Deschamps sabía cómo manejar a Mbappé, Griezmann, Pogba, al fijar una base común de trabajo y objetivo. Ahora, en Francia, donde hay 17 entrenadores nacionales (el extranjero mas importante es el alemán Thomas Tuchel, del PSG), hay grandes expectativas con la llegada de Thierry Henry al Mónaco. Esta es su primera experiencia como entrenador principal, luego de ser asistente d e Roberto Martínez en Bélgica. Sin embargo, se sabe que Mónaco pasa un momento difícil. “En Francia, a mucha gente no le gusta Henry. Pero tiene mucha ambición. Es perfeccionista, estricto y con mucha pasión por el juego. Su situación en Mónaco es complicada porque la plantilla no está al nivel de la de otros años”, opina Romain. Bourlon coincide en ese aspecto futbolístico del Mónaco, pero agrega que la figura de Henry puede levantar el nivel del equipo. “Puede ser una buena opción. Aprecia el fútbol, respira el balón, conoce perfectamente el juego, la personalidad de los jugadores y tiene mucho carisma. Intento no ser demasiado exigente por el momento del equipo, pero Henry es un ídolo; por lo tanto, inevitablemente, hay muchas expectativas y el deseo de ver a su equipo producir un hermoso fútbol”, dice. De la camada de la Selección de Francia campeona en 1998, hay un quinto exfutbolista que ahora es también entrenador; se trata de Patrick Vieira, recordado mediocampista que jugó en el Milán, el Arsenal, Juventus, el Inter y Manchester City y quien se retiró en 2011. Como entrenador, apenas hace sus primeros pinos, al dirigir primero el equipo B del Manchester City, y ahora, a sus 42 años, está al frente del Niza de la primera división de Francia. En el país galo lo ven como un técnico con futuro, que viene planteando un juego con defensa de tres hombre PABLO ROMERO Redactor de EL TIEMPO @PabloRomeroET Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>El jugador colombiano Juan Guillermo Cuadrado fue operado con éxito este martes para solucionar sus problemas en el pubis y estará cerca de 30 días de baja, informó Juventus en un comunicado. Cuadrado, que no juega desde el pasado 23 de diciembre por esas molestias, viajó el lunes a Múnich (Alemania) acompañado por el médico del Juventus Claudio Rigo y fue operado por la doctora Ulrike Muschaweck. "Cuando vuelva a Italia, el jugador empezará de inmediato la rehabilitación. Es actualmente previsible un período de cerca de 30 días para que empiece la preparación atlética", se informa en la nota emitida por el club turinés. EL TIEMPO pudo establecer que fue una operación corta, en la que no hubo ningún tipo de problemas. A Cuadrado se le realizó una cirugía pequeña en la parte derecha del pubis, que consistió en un bloqueo que buscaba quitar la conducción nerviosa del dolor. Este procedimiento no fue una infiltración, la cual sirve para desinflamar. Tampoco fue una tenotomía, que es una operación en la que se recortan los aductores para mitigar el dolor. Este procedimiento nunca se ha hecho en Colombia. El jugador, nacido en Nococlí hace 29 años y jugador del Juventus desde 2015, disputó veinte partidos esta temporada, entre la liga italiana, la Copa Italia, la Supercopa nacional y la Liga de Campeones, y marcó cuatro goles. Así, el internacional colombiano no estará a disposición del técnico, Massimiliano Allegri, para el partido de ida de los octavos de final de la Liga Europa contra el Tottenham Hotspur, que se disputará el próximo 13 de febrero en Turín (norte de Italia). EFE Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>El volante de la Selección Colombia, Juan Guillermo Cuadrado no jugará el compromiso de este domingo por la fecha 14 de la Juventus frente al Crotone. El club confirmó que el mediocampista no entrenó debido a la inflamación en los aductores de su pierna derecha. El colombiano actuó 70 minutos entre semana en partido por la quinta jornada de la Liga de Campeones, donde Juventus empató 0-0 contra el Barcelona. Los catalanes son primeros del Grupo D con 11 puntos y los italianos son segundos con 8. En el entrenamiento de este viernes en la mañana, el técnico Massimiliano Allegri decidió trabajar tácticamente con la posesión del balón y ejercicios de circulación, donde el colombiano no trabajó por molestias físicas en su pierna derecha.. DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
+  </si>
+  <si>
+    <t>El  Real Madrid perdió 0-2 ante la  Real Sociedad este domingo y perdió la ocasión de acercarse al podio después de que Sevilla y Atlético de Madrid empatasen 1-1. En un partido que pudo acabar con muchos goles, la Real Sociedad se mostró más efectiva y se llevó los tres puntos con un tanto de penal del brasileño William José (3) y otro de Rubén Pardo (83), cuando los blancos ya jugaban en inferioridad por la expulsión de Lucas Vázquez a la hora de juego. La derrota, ante un equipo que lucha por salir de la zona baja de la clasificación, acentúa la crisis del  Real  Madrid, que suma la sexta derrota en 18 partidos y que parece despedirse de sus opciones de luchar por la Liga. Deportes Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.Barcelona derrotó 0-3 al Real Madrid y lo eliminó de la Copa del Rey, con una gran actuación del uruguayo, Luis Suárez. Barcelona espera el rival de la final, entre Betis y Sevilla, que jugarán este jueves y cuya serie está empatada 2-2. Por la Liga de España, este sábado, se volverán a enfrentar. Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.José Mourinho es de esas personas que despierta admiración y disgustos en el mundo del fútbol . Su forma de trabajo y la manera en que dice las verdades es del gusto de algunos, pero motivo de reproches por otros. Sin embargo, el entrenador portugués no deja de ser un ser humano intachable. La nobleza que algunos no pueden creer de él, apareció por estos días en Londres cuando más se lo necesitaba. No tuvo que hacer una estrategia para poner a ganar a su equipo. En esta oportunidad está dirigiendo el partido más importante de su vida. Mourinho asistió a un un centro de mayores de Londres para colaborar en la lucha contra el coronavirus. Tal y como se pueden ver en algunas fotografías o en un vídeo, el portugués ha decidido estar activo en esta lucha frente a la propagación de la pandemia que asola a todo el mundo. Aplausos y más aplausos. DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.Tres goles de Lionel Messi a balón parado, uno de penalti y dos lanzamientos de falta, además de otro de Sergio Busquets, llevaron al Barça al liderato de LaLiga tras derrotar al Celta (4-1), en un partido con más goles que fútbol por parte de los azulgranas. Leo Messi fue la diferencia, sobre todo a balón parado. Fue el fiel de la balanza en un partido plano, en el que el Barça tampoco dio muestras de mejoría. Da igual el rival que esté enfrente, porque a este Barça se le ven las costuras, incapaz de encontrar su mejor versión, pese a que hoy Ernesto Valverde rebuscó en su alineación y planteó algún cambio. El conocimiento que Óscar García Junyent tiene del Barça, al que seguro que ha visto jugar más que a su equipo, el Celta, fue determinante en el planteamiento. Puso el técnico céltico a un equipo para presionar muy arriba, con tres centrales y buscarle la yugular a los azulgrana. Y ante las dudas, el Barça estuvo unos cuantos minutos en el inicio del partido a merced del rival que, aunque no tenía ocasiones de gol, empezó jugando muchos minutos en el campo contrario. Puso Valverde a Sergi Roberto de mediocentro, a Umtiti como acompañante de Piqué, regresó Arthur al equipo y le dio minutos a Ansu con Messi y Griezmann en la delantera. Pero no funcionó. El balón no corría, el fútbol no fluía y solo algún destello de Leo Messi animaba a los espectadores. Todo cambió en una jugada del dominicano Junior Firpo, que recuperó un balón tras una acción reclamada como falta de Arthur por parte de los gallegos. Junior centró y Aidoo despejó el balón con la mano. El penalti lo transformó Messi (1-0, m. 23). Poco antes se lesionó Semedo, Busquets entró por él y Sergi Roberto volvió al lateral. El gol hizo daño al Celta, el partido ya era del Barça, que tuvo alguna ocasión para poner el 2-0, pero en la única que tuvo el Celta empató. Pape Cheikh recuperó un balón, Messi intentó frenarlo, pero el árbitro señaló una falta protestada cerca de la frontal del área. El magnífico lanzamiento del central uruguayo Lucas Olaza superó la barrera y sorprendió a Ter Stegen (1-1, m. 42). Pero justo en la última acción del primer tiempo, una falta sobre Arthur permitió a Messi poner el 2-1, tras otro magnífico lanzamiento directo. Y el segundo tiempo empezó como acabó el primero, con un gol de Messi para decidir el partido. De nuevo Messi, otra vez en un lanzamiento de falta y por la izquierda de Rubén Blanco. El argentino, en el 48, puso el 3-1 y prácticamente cerró el partido frente a un rival sin respuestas. Pese a la goleada, que culminó Sergio Busquets en el minuto 85, el Barça no mostró mucha mejoría en su juego, pero recupera el liderato y Messi, por 45 ocasión en su carrera, volvió a llevarse el balón a casa. FC Barcelona: Ter Stegen; Semedo (Busquets, m. 23), Piqué, Umtiti, Junior; Sergi Roberto, De Jong, Arthur; Messi, Griezmann (Luis Suárez, m. 73) y Ansu Fati (Dembélé, m. 46). Celta: Rubén; Aidoo, Araújo, Olaza; Hugo Mallo, Beltrán, Pape Cheikh (Gabriel Fernández, m.81), Lobotka (Denis Suárez, m.76); Juncá; Aspas y Sisto (Brais Méndez, m. 64). Goles: 1-0, m. 23: Messi, de penalti. 1-1, m.42: Olaza. 2-1, m. 45+1: Messi. 3-1, m. 48: Messi. 4-1, m. 85: Busquets. Árbitro: Guillermo Cuadra Fernández (Comité Balear). Amonestó a los locales Umtiti (m.25), Messi (m.40), Sergi Roberto (m. 53), Busquets (m. 88) y a los visitantes Fran Beltrán (m.45). Incidencias: Partido de la decimotercera jornada de LaLiga Santander disputado en el Camp Nou ante 71.209 espectadores. EFE Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.El holandés Virgil van Dijk, defensa del Liverpool, recibió este jueves en el Forum Grimaldi de Mónaco el premio al Jugador del Año (2019) de la Uefa. Van Dijk, uno de los principales artífices del sexto título del Liverpool en la máxima competición continental y del acceso a la final de la Liga de Naciones de la selección de Holanda, superó en la elección final al argentino Leo Messi y al portugués Cristiano Ronaldo, los otros dos finalistas a lograr este galardón. (Le puede interesar: Los grandes elogios entre Messi y Cristiano en la gala de la Uefa ) Messi fue el máximo goleador de la Liga de Campeones (12 tantos) y campeón de la Liga española, en la que ganó su décimo título con el Barcelona con 36 tantos; y Cristiano fue el máximo anotador de la fase final de Liga de Naciones en la que fue campeón con su selección y logró su primer título liguero en Italia con el Juventus. Cristiano Ronaldo es el jugador que más veces ha recibido este galardón, en tres oportunidades (2014, 2016 y 2017), uno más que Messi, dos veces (2011 y 2015). Van Dijk es el primer defensa que recibe este premio, en cuyo palmarés releva al centrocampista croata del Real Madrid Luka Modric, quien el pasado año superó a Cristiano Ronaldo y al egipcio Mohamed Salah, también del Liverpool. Los tres finalistas fueron seleccionados por un jurado compuesto por 80 entrenadores de los clubes participantes en Liga de Campeones y la Liga Europa, junto a 55 periodistas de cada una de las federaciones miembro de la Uefa seleccionados por el grupo European Sports Media (ESM). Cada uno de ellos eligió una lista de tres futbolistas y tuvo que asignara a cada uno una puntuación de cinco, tres y uno. Los entrenadores no pudieron votar por jugadores de su propio equipo. EFE Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.Xavi Hernández , campeón del mundo con España en 2010, fue designado embajador del Mundial de Catar-2022, este domingo por el Comité de Organización del torneo. El mediocampista de 38 años viste desde 2015 los colores del Al Sadd, un club del emirato. “He visto lo que el fútbol puede conseguir en las comunidades en Catar y en la región”, indicó el exjugador del FC Barcelona en un comunicado. “El fútbol tiene el poder de unir a la gente, combatir los estereotipos y romper las barreras sociales”, afirmó. Xavi llevó los colores del Barça durante 17 años a partir de 1998 , consiguiendo ocho títulos de campeón de España y cuatro Ligas de Campeones, entre otros éxitos. Con la selección española se llevó el Mundial de Sudáfrica-2010, así como las Eurocopas de 2008 y 2012. AFP Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.El francés Zinedine Zidane, entrenador del Real Madrid, dijo este sábado, tras la victoria de su equipo en Éibar (0-4), que se alegra por el uruguayo Fede Valverde, que logró su primer tanto en Liga con la camiseta del conjunto blanco. "Cuando juega lo hace muy bien. A Valverde le faltaba el gol y me alegro por él", señaló Zidane sobre el charrúa, que cerró la cuenta en el estadio Ipurúa. Valverde se ha ganado la titularidad en los últimos encuentros con el Real Madrid con actuaciones solventes, despliegue físico, atención para conteneral rival junto al brasileño Casemiro, fútbol fácil y llegada al área contraria. "Es un jugador diferente, joven, quiere, tiene hambre de hacerlo bien", apuntó Zidane. El entrenador francés también destacó que estaba satisfecho por la actuación del resto de jugadores, como el croata Luka Modric o Lucas Vázquez, que recuperaron la titularidad con buen juego, o el belga Eden Hazard, que tuvo una de sus mejores prestaciones desde que llegó al Real Madrid. Con apenas 21 años, el volante uruguayo Federico Valverde se convirtió en el nuevo jugador que le gana el puesto a James en la titular del Real Madrid. El uruguayo, que comenzó su carrera deportiva en Peñarol, es un futbolista con el ADN charrúa. Corre, mete, pelea, pero también sabe jugar. Es un aporte de músculo en la zona de volantes para el equipo de Zidane. EFE Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.Hace 20 años, Zinedine Zidane tenía una incipiente calvicie y una magia desbordante; Didier Deschamps era el capitán, pero ya parecía el técnico; Laurent Blanc tenía esa mirada del que deja la vida para ganar, y parecía que la dejaba, y Thierry Henry era un diamante que empezaba a pulir los goles que le dieron fama. Fueron parte de aquella generación dorada de Francia que ganó el Mundial de 1998. Veinte años después, cuando la calvicie asoma y las canas abundan, ellos siguen en la élite: ahora son la generación dorada de entrenadores franceses. Zidane pasó de ser balón de oro y de ganar la Champions y el Mundial a convertirse en uno de los prestigiosos entrenadores del momento, con tres orejonas en el bolsillo del Real Madrid, el cual abandonó la temporada pasada. Deschamps no solo ganó el Mundial como jugador, sino que es el tercero que repite como DT, con Zagallo y Beckenbauer. Zidane fue elegido en 2017 el mejor DT en los premios The Best de la Fifa, y Deschamps, este año. A ellos los siguen otros exintegrantes de aquel plantel del 98, como Blanc, que lo ganó todo como DT del PSG, donde estuvo hasta el 2016. Y ahora aparecen Henry, el nuevo técnico del Mónaco, donde dirige a Falcao, y otro de la camada del 98, Patrick Vieira, del Niza. Sin embargo, no obstante tener las mismas raíces de ese equipo francés del 98 que era dirigido por Aimé Jacquet, no son técnicos similares. Así lo analizan dos expertos periodistas franceses. Por un lado, Romain Molina, autor de los libros Cavani, el Matador y Unai Emery, el Maestro, opina: “De esa generación del 98 se destaca gente con personalidad y carisma. Pero cada uno tiene una trayectoria distinta, influenciados por técnicos extranjeros. Zidane, por su tiempo en el Madrid y su formación en Francia. Deschamps es distinto, porque ya tenia actitudes naturales de manejar un grupo. Ambos tienen la influencia italiana, por Fabio Capello en Juventus. Henry se ha tomado su tiempo y hace parte de una filosofía de fútbol, porque teoriza mucho, con mucha inteligencia. Y Blanc es un manejador de hombres que ha tenido influencia de Alex Ferguson”, opina Romain, quien agrega que, más allá de ese prestigio, los técnicos franceses son muy conservadores, sobre todo los que dirigen en la Liga. Por su parte, Antoine Bourlon, periodista de la revista France Football, analiza: “Comparando sus experiencias, tienen diferentes maneras de teorizar el juego. En 1998 fue pragmatismo al máximo con Jacquet. Deschamps es heredero de esto, agregando su cultura táctica y su trabajo, un poco italiano. Blanc nunca dudó en ser fervoroso con un juego de posesión y posición, como lo vimos en PSG. Henry está visto hoy como influenciado por Guardiola, el hermoso juego con un enfoque más romántico del fútbol que Deschamps”, dice. Otro aspecto que analiza Bourloin es la capacidad que tienen estos entrenadores para manejar vestuarios complicados y lidiar con las figuras. “La Copa del Mundo es el mejor ejemplo para Francia, donde Deschamps sabía cómo manejar a Mbappé, Griezmann, Pogba, al fijar una base común de trabajo y objetivo. Ahora, en Francia, donde hay 17 entrenadores nacionales (el extranjero mas importante es el alemán Thomas Tuchel, del PSG), hay grandes expectativas con la llegada de Thierry Henry al Mónaco. Esta es su primera experiencia como entrenador principal, luego de ser asistente d e Roberto Martínez en Bélgica. Sin embargo, se sabe que Mónaco pasa un momento difícil. “En Francia, a mucha gente no le gusta Henry. Pero tiene mucha ambición. Es perfeccionista, estricto y con mucha pasión por el juego. Su situación en Mónaco es complicada porque la plantilla no está al nivel de la de otros años”, opina Romain. Bourlon coincide en ese aspecto futbolístico del Mónaco, pero agrega que la figura de Henry puede levantar el nivel del equipo. “Puede ser una buena opción. Aprecia el fútbol, respira el balón, conoce perfectamente el juego, la personalidad de los jugadores y tiene mucho carisma. Intento no ser demasiado exigente por el momento del equipo, pero Henry es un ídolo; por lo tanto, inevitablemente, hay muchas expectativas y el deseo de ver a su equipo producir un hermoso fútbol”, dice. De la camada de la Selección de Francia campeona en 1998, hay un quinto exfutbolista que ahora es también entrenador; se trata de Patrick Vieira, recordado mediocampista que jugó en el Milán, el Arsenal, Juventus, el Inter y Manchester City y quien se retiró en 2011. Como entrenador, apenas hace sus primeros pinos, al dirigir primero el equipo B del Manchester City, y ahora, a sus 42 años, está al frente del Niza de la primera división de Francia. En el país galo lo ven como un técnico con futuro, que viene planteando un juego con defensa de tres hombre PABLO ROMERO Redactor de EL TIEMPO @PabloRomeroET Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.El jugador colombiano Juan Guillermo Cuadrado fue operado con éxito este martes para solucionar sus problemas en el pubis y estará cerca de 30 días de baja, informó Juventus en un comunicado. Cuadrado, que no juega desde el pasado 23 de diciembre por esas molestias, viajó el lunes a Múnich (Alemania) acompañado por el médico del Juventus Claudio Rigo y fue operado por la doctora Ulrike Muschaweck. "Cuando vuelva a Italia, el jugador empezará de inmediato la rehabilitación. Es actualmente previsible un período de cerca de 30 días para que empiece la preparación atlética", se informa en la nota emitida por el club turinés. EL TIEMPO pudo establecer que fue una operación corta, en la que no hubo ningún tipo de problemas. A Cuadrado se le realizó una cirugía pequeña en la parte derecha del pubis, que consistió en un bloqueo que buscaba quitar la conducción nerviosa del dolor. Este procedimiento no fue una infiltración, la cual sirve para desinflamar. Tampoco fue una tenotomía, que es una operación en la que se recortan los aductores para mitigar el dolor. Este procedimiento nunca se ha hecho en Colombia. El jugador, nacido en Nococlí hace 29 años y jugador del Juventus desde 2015, disputó veinte partidos esta temporada, entre la liga italiana, la Copa Italia, la Supercopa nacional y la Liga de Campeones, y marcó cuatro goles. Así, el internacional colombiano no estará a disposición del técnico, Massimiliano Allegri, para el partido de ida de los octavos de final de la Liga Europa contra el Tottenham Hotspur, que se disputará el próximo 13 de febrero en Turín (norte de Italia). EFE Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'.El volante de la Selección Colombia, Juan Guillermo Cuadrado no jugará el compromiso de este domingo por la fecha 14 de la Juventus frente al Crotone. El club confirmó que el mediocampista no entrenó debido a la inflamación en los aductores de su pierna derecha. El colombiano actuó 70 minutos entre semana en partido por la quinta jornada de la Liga de Campeones, donde Juventus empató 0-0 contra el Barcelona. Los catalanes son primeros del Grupo D con 11 puntos y los italianos son segundos con 8. En el entrenamiento de este viernes en la mañana, el técnico Massimiliano Allegri decidió trabajar tácticamente con la posesión del balón y ejercicios de circulación, donde el colombiano no trabajó por molestias físicas en su pierna derecha.. DEPORTES Miedo 11:19 p.m. Ejercite su mente en la cuarentena con este test de lógica matemática Ponga a prueba esas clases de matemáticas del colegio y de la vida par ... Manizales 10:00 p.m. Ya se venden medicamentos de cannabis con fórmula médica En farmacias especializadas de Colombia es posible acceder a medicamen ... Manizales 10:00 p.m. El guía de la salud mental del pueblo con más casos de bipolaridad Coronavirus en Colombia 09:31 p.m. Una cabina de desinfección manual para Barranquilla Valle del Cauca 07:50 p.m. Se han recogido cerca de 132 mil mercados en 'Donatón Valle Solidario'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +92,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -108,6 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,22 +459,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263095C6-0306-48C6-A2BE-F9383F7093E7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
